--- a/docs/source/recursos/forestal/tabla_cat_fv_for_nomad_bio_cobertura_usv_17cats.xlsx
+++ b/docs/source/recursos/forestal/tabla_cat_fv_for_nomad_bio_cobertura_usv_17cats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\forestal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\forestal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1E6E69-537E-4B71-B20D-E0633F191F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE56F314-8D49-4596-98A4-EFBC63C5E9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_cat_fv_for_nomad_bio_cobe" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>Sábana</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -176,12 +173,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Sabana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1016,10 +1016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1182,7 +1184,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1193,10 +1195,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1207,86 +1209,86 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
